--- a/Test_Data/test_data.xlsx
+++ b/Test_Data/test_data.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="3360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="2265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PG" sheetId="2" r:id="rId2"/>
+    <sheet name="Journy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A32:L35"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,19 +22,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Testing plans</t>
   </si>
   <si>
     <t>test@12345.com</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>IFSC No</t>
+  </si>
+  <si>
+    <t>Account_Holder_Name</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Mobile NO</t>
+  </si>
+  <si>
+    <t>HDFC0003000</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Basic Details</t>
+  </si>
+  <si>
+    <t>Place of Birth</t>
+  </si>
+  <si>
+    <t>Savkheda</t>
+  </si>
+  <si>
+    <t>Identification marks</t>
+  </si>
+  <si>
+    <t>No marks</t>
+  </si>
+  <si>
+    <t>Pan No</t>
+  </si>
+  <si>
+    <t>PPPPJ8899H</t>
+  </si>
+  <si>
+    <t>Family Details</t>
+  </si>
+  <si>
+    <t>Father Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father </t>
+  </si>
+  <si>
+    <t>Mother name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother </t>
+  </si>
+  <si>
+    <t>Maiden Name</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Spouse Name</t>
+  </si>
+  <si>
+    <t>Spouse</t>
+  </si>
+  <si>
+    <t>Life Cover of Husband</t>
+  </si>
+  <si>
+    <t>Contact Details</t>
+  </si>
+  <si>
+    <t>Mail Address L1</t>
+  </si>
+  <si>
+    <t>Mail Address L2</t>
+  </si>
+  <si>
+    <t>Shioor</t>
+  </si>
+  <si>
+    <t>Mail_Landmark</t>
+  </si>
+  <si>
+    <t>Shioor Shivaar</t>
+  </si>
+  <si>
+    <t>Mail_pincode</t>
+  </si>
+  <si>
+    <t>Per Address L1</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>kanhai</t>
+  </si>
+  <si>
+    <t>Per Address L2</t>
+  </si>
+  <si>
+    <t>Per Landmark</t>
+  </si>
+  <si>
+    <t>Per Pin Code</t>
+  </si>
+  <si>
+    <t>Education
+ Occupation</t>
+  </si>
+  <si>
+    <t>Employer/Business</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Workplace Address</t>
+  </si>
+  <si>
+    <t>sector 44</t>
+  </si>
+  <si>
+    <t>Workplace city</t>
+  </si>
+  <si>
+    <t>Annual income</t>
+  </si>
+  <si>
+    <t>Nominee Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niminee Name</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>nominee@123.com</t>
+  </si>
+  <si>
+    <t>E-insurance 
+account</t>
+  </si>
+  <si>
+    <t>E insurnce account no</t>
+  </si>
+  <si>
+    <t>Bank Details</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>LA General Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight </t>
+  </si>
+  <si>
+    <t>9999999999'</t>
+  </si>
+  <si>
+    <t>99999998999999'</t>
+  </si>
+  <si>
+    <t>Fund allocation</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>Nominee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +253,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -57,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,14 +278,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -356,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +623,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -384,4 +633,438 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>8967676555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>9999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4">
+        <v>122003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4">
+        <v>431116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10101996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9877777777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C30" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>